--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -5,26 +5,30 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unseen\gameTb\client\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\client\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="applicationEngine" sheetId="10" r:id="rId1"/>
     <sheet name="selectEngine" sheetId="1" r:id="rId2"/>
     <sheet name="conditionEngine" sheetId="7" r:id="rId3"/>
     <sheet name="rewardEngine" sheetId="8" r:id="rId4"/>
-    <sheet name="conditionEngine.i" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="appType.j" sheetId="9" state="hidden" r:id="rId6"/>
-    <sheet name="conditionEngine.j" sheetId="4" state="hidden" r:id="rId7"/>
-    <sheet name="doingType.j" sheetId="12" state="hidden" r:id="rId8"/>
+    <sheet name="selectGlob" sheetId="13" r:id="rId5"/>
+    <sheet name="selectSelf" sheetId="14" r:id="rId6"/>
+    <sheet name="sinkType.j" sheetId="15" state="hidden" r:id="rId7"/>
+    <sheet name="conditionEngine.i" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="appType.j" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="conditionEngine.j" sheetId="4" state="hidden" r:id="rId10"/>
+    <sheet name="doingType.j" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="appTypek">appType.j!$A:$A</definedName>
     <definedName name="aspectk">conditionEngine.j!$A:$A</definedName>
     <definedName name="doingTypek">doingType.j!$A:$A</definedName>
+    <definedName name="sinkTypek">sinkType.j!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="251">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -912,6 +916,57 @@
   </si>
   <si>
     <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinkId</t>
+  </si>
+  <si>
+    <t>sinkType</t>
+  </si>
+  <si>
+    <t>sinkValue</t>
+  </si>
+  <si>
+    <t>actionId</t>
+  </si>
+  <si>
+    <t>deleteId</t>
+  </si>
+  <si>
+    <t>触发器编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinkType.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作触发器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1303,9 +1358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1362,13 +1417,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2358,7 +2543,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3034,10 +3219,209 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>sinkTypek</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>sinkTypek</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3215,6 +3599,14 @@
         <v>206</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3222,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3297,134 +3689,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="6">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="applicationEngine" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="253">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -615,10 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示游戏欢迎界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界面系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,10 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序启动最先显示游戏欢迎界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>程序启动进入游戏界面或者登陆界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,6 +959,21 @@
   </si>
   <si>
     <t>动作触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序启动最先加载游戏欢迎界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载游戏欢迎界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表</t>
+  </si>
+  <si>
+    <t>帐号注销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,9 +1365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1372,10 +1379,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1383,15 +1390,15 @@
         <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1399,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1407,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1441,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -1442,7 +1449,7 @@
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1450,7 +1457,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1458,7 +1465,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1466,7 +1473,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -1474,7 +1481,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -1482,7 +1489,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -1490,7 +1497,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -1519,7 +1526,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1527,7 +1534,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -1535,7 +1542,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -1549,11 +1556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1601,13 +1608,13 @@
         <v>157</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>1</v>
@@ -1708,13 +1715,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>33</v>
@@ -1815,13 +1822,13 @@
         <v>156</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>55</v>
@@ -1919,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -1942,10 +1949,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -1969,31 +1976,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F19" s="9"/>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2044,7 +2028,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2103,7 +2087,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2115,7 +2099,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2127,7 +2111,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2139,7 +2123,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2151,7 +2135,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2163,7 +2147,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2175,7 +2159,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2187,7 +2171,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2199,7 +2183,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2211,7 +2195,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2231,7 +2215,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2243,7 +2227,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2255,7 +2239,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2267,7 +2251,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2279,7 +2263,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2291,7 +2275,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2303,7 +2287,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2315,7 +2299,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2327,7 +2311,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2339,7 +2323,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2359,7 +2343,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>107</v>
@@ -2371,7 +2355,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>110</v>
@@ -2383,7 +2367,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>113</v>
@@ -2395,7 +2379,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>116</v>
@@ -2407,7 +2391,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>119</v>
@@ -2419,7 +2403,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>122</v>
@@ -2431,7 +2415,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>125</v>
@@ -2443,7 +2427,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>128</v>
@@ -2455,7 +2439,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>131</v>
@@ -2467,7 +2451,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>134</v>
@@ -2478,16 +2462,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2539,11 +2523,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2602,7 +2586,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2614,7 +2598,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2626,7 +2610,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2638,7 +2622,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2650,7 +2634,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2662,7 +2646,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2674,7 +2658,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2686,7 +2670,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2698,7 +2682,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2710,7 +2694,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2730,7 +2714,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2742,7 +2726,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2754,7 +2738,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2766,7 +2750,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2778,7 +2762,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2790,7 +2774,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2802,7 +2786,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2814,7 +2798,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2826,7 +2810,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2838,7 +2822,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2858,7 +2842,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>137</v>
@@ -2870,7 +2854,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>138</v>
@@ -2882,7 +2866,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>139</v>
@@ -2894,7 +2878,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>140</v>
@@ -2906,7 +2890,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>141</v>
@@ -2918,7 +2902,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>142</v>
@@ -2930,7 +2914,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>143</v>
@@ -2942,7 +2926,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>144</v>
@@ -2954,7 +2938,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>145</v>
@@ -2966,7 +2950,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>146</v>
@@ -2977,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2986,7 +2970,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2997,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -3006,7 +2990,7 @@
         <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -3017,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -3026,7 +3010,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
@@ -3037,7 +3021,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -3046,7 +3030,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F7" s="3">
         <v>4</v>
@@ -3057,16 +3041,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -3077,16 +3061,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -3097,19 +3081,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.15">
@@ -3117,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -3126,7 +3122,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -3137,16 +3133,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F12" s="3">
         <v>9</v>
@@ -3157,18 +3153,38 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3223,7 +3239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3238,27 +3254,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>78</v>
@@ -3272,19 +3288,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3321,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3320,27 +3336,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>78</v>
@@ -3354,19 +3370,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +3412,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -3404,7 +3420,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -3513,98 +3529,98 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3631,7 +3647,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -3639,7 +3655,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -3647,7 +3663,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -3655,7 +3671,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -3663,7 +3679,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -3671,7 +3687,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
@@ -3679,7 +3695,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" s="3">
         <v>7</v>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="applicationEngine" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="250">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -674,10 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示注册游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家是否登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -697,18 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示创建角色界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行创建角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取服务器地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,6 +958,10 @@
   </si>
   <si>
     <t>帐号注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载注册游戏界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1382,7 +1370,7 @@
         <v>170</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1390,7 +1378,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1398,7 +1386,7 @@
         <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1406,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1414,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -1457,7 +1445,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1465,7 +1453,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1473,7 +1461,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -1481,7 +1469,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -1489,7 +1477,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -1497,7 +1485,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -1526,7 +1514,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1534,7 +1522,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -1542,7 +1530,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -1560,7 +1548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1611,10 +1599,10 @@
         <v>161</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>1</v>
@@ -1718,10 +1706,10 @@
         <v>162</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>33</v>
@@ -1825,10 +1813,10 @@
         <v>163</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>55</v>
@@ -1926,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>166</v>
@@ -2087,7 +2075,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2099,7 +2087,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2111,7 +2099,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2123,7 +2111,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2135,7 +2123,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2147,7 +2135,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2159,7 +2147,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2171,7 +2159,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2183,7 +2171,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2195,7 +2183,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2215,7 +2203,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2227,7 +2215,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2239,7 +2227,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2251,7 +2239,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2263,7 +2251,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2275,7 +2263,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2287,7 +2275,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2299,7 +2287,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2311,7 +2299,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2323,7 +2311,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2343,7 +2331,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>107</v>
@@ -2355,7 +2343,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>110</v>
@@ -2367,7 +2355,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>113</v>
@@ -2379,7 +2367,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>116</v>
@@ -2391,7 +2379,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>119</v>
@@ -2403,7 +2391,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>122</v>
@@ -2415,7 +2403,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>125</v>
@@ -2427,7 +2415,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>128</v>
@@ -2439,7 +2427,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>131</v>
@@ -2451,7 +2439,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>134</v>
@@ -2462,16 +2450,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2523,11 +2511,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2535,7 +2523,8 @@
     <col min="1" max="1" width="8.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="3" customWidth="1"/>
@@ -2586,7 +2575,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2598,7 +2587,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2610,7 +2599,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2622,7 +2611,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2634,7 +2623,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2646,7 +2635,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2658,7 +2647,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2670,7 +2659,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2682,7 +2671,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2694,7 +2683,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2714,7 +2703,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2726,7 +2715,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2738,7 +2727,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2750,7 +2739,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2762,7 +2751,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2774,7 +2763,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2786,7 +2775,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2798,7 +2787,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2810,7 +2799,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2822,7 +2811,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2842,7 +2831,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>137</v>
@@ -2854,7 +2843,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>138</v>
@@ -2866,7 +2855,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>139</v>
@@ -2878,7 +2867,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>140</v>
@@ -2890,7 +2879,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>141</v>
@@ -2902,7 +2891,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>142</v>
@@ -2914,7 +2903,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>143</v>
@@ -2926,7 +2915,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>144</v>
@@ -2938,7 +2927,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>145</v>
@@ -2950,7 +2939,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>146</v>
@@ -2961,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2970,7 +2959,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2990,10 +2979,10 @@
         <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.15">
@@ -3010,10 +2999,10 @@
         <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.15">
@@ -3021,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -3030,10 +3019,10 @@
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.15">
@@ -3041,16 +3030,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -3061,16 +3050,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -3081,16 +3070,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -3099,10 +3088,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -3113,118 +3102,58 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM11 AM13:AM1048576">
       <formula1>"10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI11 AI13:AI1048576">
       <formula1>"9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE11 AE13:AE1048576">
       <formula1>"8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA11 AA13:AA1048576">
       <formula1>"7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W11 W13:W1048576">
       <formula1>"6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S11 S13:S1048576">
       <formula1>"5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O11 O13:O1048576">
       <formula1>"4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K11 K13:K1048576">
       <formula1>"3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G11 G13:G1048576">
       <formula1>"2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C13:C1048576">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ1048576 D1:D1048576 H1:H1048576 L1:L1048576 P1:P1048576 T1:T1048576 X1:X1048576 AB1:AB1048576 AF1:AF1048576 AN1:AN1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ11 AJ13:AJ1048576 AN1:AN11 AN13:AN1048576 AF1:AF11 AF13:AF1048576 AB1:AB11 AB13:AB1048576 X1:X11 X13:X1048576 T1:T11 T13:T1048576 P1:P11 P13:P1048576 L1:L11 L13:L1048576 H1:H11 H13:H1048576 D1:D11 D13:D1048576">
       <formula1>aspectk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 AO1:AO1048576 AK1:AK1048576 AG1:AG1048576 AC1:AC1048576 Y1:Y1048576 U1:U1048576 Q1:Q1048576 M1:M1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E11 E13:E1048576 I1:I11 I13:I1048576 M1:M11 M13:M1048576 Q1:Q11 Q13:Q1048576 U1:U11 U13:U1048576 Y1:Y11 Y13:Y1048576 AC1:AC11 AC13:AC1048576 AG1:AG11 AG13:AG1048576 AK1:AK11 AK13:AK1048576 AO1:AO11 AO13:AO1048576">
       <formula1>doingTypek</formula1>
     </dataValidation>
   </dataValidations>
@@ -3254,19 +3183,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3288,19 +3217,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3336,19 +3265,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3370,19 +3299,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3341,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -3420,7 +3349,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -3537,90 +3466,90 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3679,7 +3608,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -3687,7 +3616,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
@@ -3695,7 +3624,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7" s="3">
         <v>7</v>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="applicationEngine" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="253">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -962,6 +962,18 @@
   </si>
   <si>
     <t>加载注册游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序关闭时显示闭幕界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,53 +1363,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="8.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2513,7 +2548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="245">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -666,14 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示进入游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示登陆游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家是否登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,18 +673,6 @@
     <t>帐号系统</t>
   </si>
   <si>
-    <t>执行帐号注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行帐号登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入游戏界面数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,10 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序启动进入游戏界面或者登陆界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>indexs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,25 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序启动最先加载游戏欢迎界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载游戏欢迎界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器列表</t>
-  </si>
-  <si>
-    <t>帐号注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载注册游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stopId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,6 +931,18 @@
   </si>
   <si>
     <t>程序关闭时显示闭幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示闭幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序启动先显示启动界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示启动界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1363,19 +1332,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1384,10 +1353,10 @@
         <v>170</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>157</v>
@@ -1398,10 +1367,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>80</v>
@@ -1412,7 +1381,7 @@
         <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>156</v>
@@ -1423,21 +1392,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -1480,7 +1441,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1488,7 +1449,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1496,7 +1457,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -1504,7 +1465,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -1512,7 +1473,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -1520,7 +1481,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -1549,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1557,7 +1518,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -1565,7 +1526,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -1583,7 +1544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1634,10 +1595,10 @@
         <v>161</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>1</v>
@@ -1741,10 +1702,10 @@
         <v>162</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>33</v>
@@ -1848,10 +1809,10 @@
         <v>163</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>55</v>
@@ -1949,13 +1910,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -1977,9 +1935,6 @@
       <c r="C5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
@@ -1997,6 +1952,20 @@
       </c>
       <c r="K5" s="7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.15">
@@ -2006,37 +1975,37 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F4:F1048576 F1:F3">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="I4:I1048576 I1:I3">
       <formula1>"2"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="L4:L1048576 L1:L3">
       <formula1>"3"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O1:O1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O4:O1048576 O1:O3">
       <formula1>"4"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R1:R1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R4:R1048576 R1:R3">
       <formula1>"5"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="U1:U1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="U4:U1048576 U1:U3">
       <formula1>"6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X1048576 X1:X3">
       <formula1>"7"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AA1:AA1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AA4:AA1048576 AA1:AA3">
       <formula1>"8"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AD1:AD1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AD4:AD1048576 AD1:AD3">
       <formula1>"9"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AG1:AG1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AG4:AG1048576 AG1:AG3">
       <formula1>"10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576 C1:C3">
       <formula1>appTypek</formula1>
     </dataValidation>
   </dataValidations>
@@ -2051,7 +2020,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2110,7 +2079,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2122,7 +2091,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2134,7 +2103,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2146,7 +2115,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2158,7 +2127,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2170,7 +2139,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2182,7 +2151,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2194,7 +2163,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2206,7 +2175,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2218,7 +2187,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2238,7 +2207,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2250,7 +2219,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2262,7 +2231,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2274,7 +2243,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2286,7 +2255,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2298,7 +2267,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2310,7 +2279,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2322,7 +2291,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2334,7 +2303,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2346,7 +2315,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2366,7 +2335,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>107</v>
@@ -2378,7 +2347,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>110</v>
@@ -2390,7 +2359,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>113</v>
@@ -2402,7 +2371,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>116</v>
@@ -2414,7 +2383,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>119</v>
@@ -2426,7 +2395,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>122</v>
@@ -2438,7 +2407,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>125</v>
@@ -2450,7 +2419,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>128</v>
@@ -2462,7 +2431,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>131</v>
@@ -2474,7 +2443,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>134</v>
@@ -2485,16 +2454,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2546,11 +2515,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2610,7 +2579,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2622,7 +2591,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2634,7 +2603,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2646,7 +2615,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2658,7 +2627,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2670,7 +2639,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2682,7 +2651,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2694,7 +2663,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2706,7 +2675,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2718,7 +2687,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2738,7 +2707,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2750,7 +2719,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2762,7 +2731,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2774,7 +2743,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2786,7 +2755,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2798,7 +2767,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2810,7 +2779,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2822,7 +2791,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2834,7 +2803,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2846,7 +2815,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2866,7 +2835,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>137</v>
@@ -2878,7 +2847,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>138</v>
@@ -2890,7 +2859,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>139</v>
@@ -2902,7 +2871,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>140</v>
@@ -2914,7 +2883,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>141</v>
@@ -2926,7 +2895,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>142</v>
@@ -2938,7 +2907,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>143</v>
@@ -2950,7 +2919,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>144</v>
@@ -2962,7 +2931,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>145</v>
@@ -2974,7 +2943,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>146</v>
@@ -2985,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2994,201 +2963,73 @@
         <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="I4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="M4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N4" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM11 AM13:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM1048576">
       <formula1>"10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI11 AI13:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576">
       <formula1>"9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE11 AE13:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
       <formula1>"8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA11 AA13:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
       <formula1>"7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W11 W13:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
       <formula1>"6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S11 S13:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
       <formula1>"5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O11 O13:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K11 K13:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G11 G13:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C13:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ11 AJ13:AJ1048576 AN1:AN11 AN13:AN1048576 AF1:AF11 AF13:AF1048576 AB1:AB11 AB13:AB1048576 X1:X11 X13:X1048576 T1:T11 T13:T1048576 P1:P11 P13:P1048576 L1:L11 L13:L1048576 H1:H11 H13:H1048576 D1:D11 D13:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 H1:H1048576 L1:L1048576 P1:P1048576 T1:T1048576 X1:X1048576 AB1:AB1048576 AF1:AF1048576 AN1:AN1048576 AJ1:AJ1048576">
       <formula1>aspectk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E11 E13:E1048576 I1:I11 I13:I1048576 M1:M11 M13:M1048576 Q1:Q11 Q13:Q1048576 U1:U11 U13:U1048576 Y1:Y11 Y13:Y1048576 AC1:AC11 AC13:AC1048576 AG1:AG11 AG13:AG1048576 AK1:AK11 AK13:AK1048576 AO1:AO11 AO13:AO1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AO1048576 AK1:AK1048576 AG1:AG1048576 AC1:AC1048576 Y1:Y1048576 U1:U1048576 Q1:Q1048576 M1:M1048576 I1:I1048576 E1:E1048576">
       <formula1>doingTypek</formula1>
     </dataValidation>
   </dataValidations>
@@ -3218,19 +3059,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3252,19 +3093,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3300,19 +3141,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3334,19 +3175,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3217,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -3384,7 +3225,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -3501,90 +3342,90 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3643,7 +3484,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -3651,7 +3492,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
@@ -3659,7 +3500,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B7" s="3">
         <v>7</v>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="applicationEngine" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="245">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -662,10 +662,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登陆还是进入游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家是否登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -938,11 +934,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序启动先显示启动界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示启动界面</t>
+    <t>显示开幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序启动先显示开幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示闭幕界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1334,9 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1353,10 +1353,10 @@
         <v>170</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>157</v>
@@ -1367,10 +1367,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>80</v>
@@ -1381,7 +1381,7 @@
         <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>156</v>
@@ -1395,10 +1395,10 @@
         <v>243</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -1510,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -1540,11 +1540,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1595,10 +1595,10 @@
         <v>161</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>1</v>
@@ -1702,10 +1702,10 @@
         <v>162</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>33</v>
@@ -1809,10 +1809,10 @@
         <v>163</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>55</v>
@@ -1910,16 +1910,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -1930,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>166</v>
@@ -1938,74 +1935,48 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="I5" s="7">
-        <v>2</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F18" s="9"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F4:F1048576 F1:F3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="I4:I1048576 I1:I3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"2"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="L4:L1048576 L1:L3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"3"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O4:O1048576 O1:O3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"4"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R4:R1048576 R1:R3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"5"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="U4:U1048576 U1:U3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="U1:U1048576">
       <formula1>"6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X1048576 X1:X3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
       <formula1>"7"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AA4:AA1048576 AA1:AA3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AA1:AA1048576">
       <formula1>"8"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AD4:AD1048576 AD1:AD3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AD1:AD1048576">
       <formula1>"9"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AG4:AG1048576 AG1:AG3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AG1:AG1048576">
       <formula1>"10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576 C1:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>appTypek</formula1>
     </dataValidation>
   </dataValidations>
@@ -2079,7 +2050,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2091,7 +2062,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2103,7 +2074,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2115,7 +2086,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2127,7 +2098,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2139,7 +2110,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2151,7 +2122,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2163,7 +2134,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2175,7 +2146,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2187,7 +2158,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2207,7 +2178,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2219,7 +2190,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2231,7 +2202,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2243,7 +2214,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2255,7 +2226,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2267,7 +2238,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2279,7 +2250,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2291,7 +2262,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2303,7 +2274,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2315,7 +2286,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2335,7 +2306,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>107</v>
@@ -2347,7 +2318,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>110</v>
@@ -2359,7 +2330,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>113</v>
@@ -2371,7 +2342,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>116</v>
@@ -2383,7 +2354,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>119</v>
@@ -2395,7 +2366,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>122</v>
@@ -2407,7 +2378,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>125</v>
@@ -2419,7 +2390,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>128</v>
@@ -2431,7 +2402,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>131</v>
@@ -2443,7 +2414,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>134</v>
@@ -2454,16 +2425,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2515,11 +2486,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2579,7 +2550,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2591,7 +2562,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2603,7 +2574,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2615,7 +2586,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2627,7 +2598,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2639,7 +2610,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2651,7 +2622,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2663,7 +2634,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2675,7 +2646,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2687,7 +2658,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2707,7 +2678,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2719,7 +2690,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2731,7 +2702,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2743,7 +2714,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2755,7 +2726,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2767,7 +2738,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2779,7 +2750,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2791,7 +2762,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2803,7 +2774,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2815,7 +2786,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2835,7 +2806,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>137</v>
@@ -2847,7 +2818,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>138</v>
@@ -2859,7 +2830,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>139</v>
@@ -2871,7 +2842,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>140</v>
@@ -2883,7 +2854,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>141</v>
@@ -2895,7 +2866,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>142</v>
@@ -2907,7 +2878,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>143</v>
@@ -2919,7 +2890,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>144</v>
@@ -2931,7 +2902,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>145</v>
@@ -2943,7 +2914,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>146</v>
@@ -2954,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2963,7 +2934,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2975,10 +2946,10 @@
         <v>65</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3">
         <v>3</v>
@@ -2987,10 +2958,54 @@
         <v>65</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
         <v>3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3059,19 +3074,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3093,19 +3108,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3141,19 +3156,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3175,19 +3190,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3232,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -3225,7 +3240,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -3342,90 +3357,90 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3484,7 +3499,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -3492,7 +3507,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
@@ -3500,7 +3515,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="3">
         <v>7</v>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="248">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -741,10 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广播系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>doingType.j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,6 +939,21 @@
   </si>
   <si>
     <t>显示闭幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用配置</t>
+  </si>
+  <si>
+    <t>应用配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭闭幕界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,7 +1347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1356,7 +1367,7 @@
         <v>174</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>157</v>
@@ -1370,7 +1381,7 @@
         <v>175</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>80</v>
@@ -1392,13 +1403,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1424,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1423,68 +1434,68 @@
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B1" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="B8" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1521,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1518,7 +1529,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -1526,7 +1537,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -1544,7 +1555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1910,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>166</v>
@@ -1927,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>166</v>
@@ -1991,7 +2002,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2050,7 +2061,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2062,7 +2073,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2074,7 +2085,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2086,7 +2097,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2098,7 +2109,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2110,7 +2121,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2122,7 +2133,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2134,7 +2145,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2146,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2158,7 +2169,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2178,7 +2189,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2190,7 +2201,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2202,7 +2213,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2214,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2226,7 +2237,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2238,7 +2249,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2250,7 +2261,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2262,7 +2273,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2274,7 +2285,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2286,7 +2297,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2306,7 +2317,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>107</v>
@@ -2318,7 +2329,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>110</v>
@@ -2330,7 +2341,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>113</v>
@@ -2342,7 +2353,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>116</v>
@@ -2354,7 +2365,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>119</v>
@@ -2366,7 +2377,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>122</v>
@@ -2378,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>125</v>
@@ -2390,7 +2401,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>128</v>
@@ -2402,7 +2413,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>131</v>
@@ -2414,7 +2425,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>134</v>
@@ -2434,7 +2445,7 @@
         <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2486,18 +2497,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" customWidth="1"/>
@@ -2550,7 +2561,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>83</v>
@@ -2562,7 +2573,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>86</v>
@@ -2574,7 +2585,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>88</v>
@@ -2586,7 +2597,7 @@
         <v>69</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>90</v>
@@ -2598,7 +2609,7 @@
         <v>70</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>92</v>
@@ -2610,7 +2621,7 @@
         <v>71</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>94</v>
@@ -2622,7 +2633,7 @@
         <v>72</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>96</v>
@@ -2634,7 +2645,7 @@
         <v>98</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>99</v>
@@ -2646,7 +2657,7 @@
         <v>74</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>101</v>
@@ -2658,7 +2669,7 @@
         <v>103</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>104</v>
@@ -2678,7 +2689,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -2690,7 +2701,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>78</v>
@@ -2702,7 +2713,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
@@ -2714,7 +2725,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>78</v>
@@ -2726,7 +2737,7 @@
         <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>78</v>
@@ -2738,7 +2749,7 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>78</v>
@@ -2750,7 +2761,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>78</v>
@@ -2762,7 +2773,7 @@
         <v>78</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>78</v>
@@ -2774,7 +2785,7 @@
         <v>78</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>78</v>
@@ -2786,7 +2797,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>78</v>
@@ -2806,7 +2817,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>137</v>
@@ -2818,7 +2829,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>138</v>
@@ -2830,7 +2841,7 @@
         <v>112</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>139</v>
@@ -2842,7 +2853,7 @@
         <v>115</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>140</v>
@@ -2854,7 +2865,7 @@
         <v>118</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>141</v>
@@ -2866,7 +2877,7 @@
         <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>142</v>
@@ -2878,7 +2889,7 @@
         <v>124</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>143</v>
@@ -2890,7 +2901,7 @@
         <v>127</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>144</v>
@@ -2902,7 +2913,7 @@
         <v>130</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>145</v>
@@ -2914,7 +2925,7 @@
         <v>133</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>146</v>
@@ -2925,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2934,7 +2945,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2946,10 +2957,10 @@
         <v>65</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="3">
         <v>3</v>
@@ -2958,10 +2969,10 @@
         <v>65</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.15">
@@ -2969,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -2978,10 +2989,10 @@
         <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -2990,10 +3001,10 @@
         <v>65</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J5" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3">
         <v>3</v>
@@ -3002,49 +3013,125 @@
         <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N5" s="3">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N7" s="3">
+        <v>11</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM5 AM6:AM1048576">
       <formula1>"10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI5 AI6:AI1048576">
       <formula1>"9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE5 AE6:AE1048576">
       <formula1>"8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA5 AA6:AA1048576">
       <formula1>"7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W5 W6:W1048576">
       <formula1>"6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S5 S6:S1048576">
       <formula1>"5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O5 O6:O1048576">
       <formula1>"4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K5 K6:K1048576">
       <formula1>"3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G5 G6:G1048576">
       <formula1>"2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 C6:C1048576">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 H1:H1048576 L1:L1048576 P1:P1048576 T1:T1048576 X1:X1048576 AB1:AB1048576 AF1:AF1048576 AN1:AN1048576 AJ1:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D6:D1048576 H1:H5 H6:H1048576 L1:L5 L6:L1048576 P1:P5 P6:P1048576 T1:T5 T6:T1048576 X1:X5 X6:X1048576 AB1:AB5 AB6:AB1048576 AF1:AF5 AF6:AF1048576 AN1:AN5 AN6:AN1048576 AJ1:AJ5 AJ6:AJ1048576">
       <formula1>aspectk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AO1048576 AK1:AK1048576 AG1:AG1048576 AC1:AC1048576 Y1:Y1048576 U1:U1048576 Q1:Q1048576 M1:M1048576 I1:I1048576 E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AO5 AO6:AO1048576 AK1:AK5 AK6:AK1048576 AG1:AG5 AG6:AG1048576 AC1:AC5 AC6:AC1048576 Y1:Y5 Y6:Y1048576 U1:U5 U6:U1048576 Q1:Q5 Q6:Q1048576 M1:M5 M6:M1048576 I1:I5 I6:I1048576 E1:E5 E6:E1048576">
       <formula1>doingTypek</formula1>
     </dataValidation>
   </dataValidations>
@@ -3074,19 +3161,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3108,19 +3195,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3156,19 +3243,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3190,19 +3277,19 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -3240,7 +3327,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -3357,90 +3444,90 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3542,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="255">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -954,6 +954,34 @@
   </si>
   <si>
     <t>关闭闭幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆界面或者进入界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示进入界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新游戏界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示注册界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭注册界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号执行注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,7 +1019,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1016,6 +1044,12 @@
         <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1031,7 +1065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1095,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,9 +1593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1948,6 +1988,33 @@
       </c>
       <c r="H5" s="7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.15">
@@ -2497,11 +2564,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP7"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3095,43 +3162,284 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:42" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" s="3">
+        <v>12</v>
+      </c>
+      <c r="O9" s="3">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R9" s="3">
+        <v>15</v>
+      </c>
+      <c r="S9" s="3">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="V9" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" s="3">
+        <v>12</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R10" s="3">
+        <v>17</v>
+      </c>
+      <c r="S10" s="3">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="V10" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM5 AM6:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM1048576">
       <formula1>"10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI5 AI6:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576">
       <formula1>"9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE5 AE6:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
       <formula1>"8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA5 AA6:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
       <formula1>"7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W5 W6:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
       <formula1>"6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S5 S6:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
       <formula1>"5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O5 O6:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K5 K6:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G5 G6:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 C6:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D6:D1048576 H1:H5 H6:H1048576 L1:L5 L6:L1048576 P1:P5 P6:P1048576 T1:T5 T6:T1048576 X1:X5 X6:X1048576 AB1:AB5 AB6:AB1048576 AF1:AF5 AF6:AF1048576 AN1:AN5 AN6:AN1048576 AJ1:AJ5 AJ6:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ1048576 AN1:AN1048576 AF1:AF1048576 AB1:AB1048576 X1:X1048576 T1:T1048576 P1:P1048576 L1:L1048576 H1:H1048576 D1:D1048576">
       <formula1>aspectk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AO5 AO6:AO1048576 AK1:AK5 AK6:AK1048576 AG1:AG5 AG6:AG1048576 AC1:AC5 AC6:AC1048576 Y1:Y5 Y6:Y1048576 U1:U5 U6:U1048576 Q1:Q5 Q6:Q1048576 M1:M5 M6:M1048576 I1:I5 I6:I1048576 E1:E5 E6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 I1:I1048576 M1:M1048576 Q1:Q1048576 U1:U1048576 Y1:Y1048576 AC1:AC1048576 AG1:AG1048576 AK1:AK1048576 AO1:AO1048576">
       <formula1>doingTypek</formula1>
     </dataValidation>
   </dataValidations>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="259">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -983,6 +983,21 @@
   <si>
     <t>帐号执行注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转到进入界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号执行登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入界面数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表</t>
   </si>
 </sst>
 </file>
@@ -2564,11 +2579,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3401,6 +3416,102 @@
       </c>
       <c r="F14" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" s="3">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="263">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -998,6 +998,22 @@
   </si>
   <si>
     <t>服务器列表</t>
+  </si>
+  <si>
+    <t>刷新游戏地图场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新退出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1608,9 +1624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1985,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
@@ -2002,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2023,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
         <v>2</v>
       </c>
       <c r="K7" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.15">
@@ -2084,7 +2100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2579,11 +2595,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3018,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -3030,31 +3046,7 @@
         <v>206</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.15">
@@ -3062,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -3074,30 +3066,6 @@
         <v>206</v>
       </c>
       <c r="F5" s="3">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" s="3">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N5" s="3">
         <v>8</v>
       </c>
     </row>
@@ -3106,144 +3074,84 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F6" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="3">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="3">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J8" s="3">
+        <v>16</v>
+      </c>
+      <c r="K8" s="3">
         <v>3</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N7" s="3">
-        <v>11</v>
-      </c>
-      <c r="O7" s="3">
-        <v>4</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="R7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="N8" s="3">
+        <v>12</v>
+      </c>
+    </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N9" s="3">
-        <v>12</v>
-      </c>
-      <c r="O9" s="3">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="R9" s="3">
-        <v>15</v>
-      </c>
-      <c r="S9" s="3">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="V9" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.15">
@@ -3251,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -3263,7 +3171,7 @@
         <v>206</v>
       </c>
       <c r="F10" s="3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -3275,7 +3183,7 @@
         <v>206</v>
       </c>
       <c r="J10" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K10" s="3">
         <v>3</v>
@@ -3287,59 +3195,28 @@
         <v>206</v>
       </c>
       <c r="N10" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
         <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>206</v>
       </c>
       <c r="R10" s="3">
-        <v>17</v>
-      </c>
-      <c r="S10" s="3">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="V10" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="3">
-        <v>25</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -3348,10 +3225,10 @@
         <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="F12" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -3363,15 +3240,15 @@
         <v>206</v>
       </c>
       <c r="J12" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -3383,7 +3260,7 @@
         <v>206</v>
       </c>
       <c r="F13" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -3395,35 +3272,95 @@
         <v>206</v>
       </c>
       <c r="J13" s="3">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N13" s="3">
+        <v>21</v>
+      </c>
+      <c r="O13" s="3">
+        <v>4</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R13" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F14" s="3">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" s="3">
+        <v>23</v>
+      </c>
+      <c r="O14" s="3">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R14" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -3435,7 +3372,7 @@
         <v>206</v>
       </c>
       <c r="F15" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -3447,47 +3384,47 @@
         <v>206</v>
       </c>
       <c r="J15" s="3">
-        <v>17</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N15" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -3499,58 +3436,198 @@
         <v>206</v>
       </c>
       <c r="F17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="3">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" s="3">
+        <v>23</v>
+      </c>
+      <c r="K18" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J20" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" s="3">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" s="3">
+        <v>21</v>
+      </c>
+      <c r="O21" s="3">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R21" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM6 AM8:AM1048576">
       <formula1>"10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI6 AI8:AI1048576">
       <formula1>"9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE6 AE8:AE1048576">
       <formula1>"8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA6 AA8:AA1048576">
       <formula1>"7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W6 W8:W1048576">
       <formula1>"6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S6 S8:S1048576">
       <formula1>"5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O6 O8:O1048576">
       <formula1>"4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K6 K8:K1048576">
       <formula1>"3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6 G8:G1048576">
       <formula1>"2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C8:C1048576">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ1048576 AN1:AN1048576 AF1:AF1048576 AB1:AB1048576 X1:X1048576 T1:T1048576 P1:P1048576 L1:L1048576 H1:H1048576 D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN6 AF1:AF6 AB1:AB6 X1:X6 T1:T6 P1:P6 L1:L6 H1:H6 D1:D6 AJ1:AJ6 D8:D1048576 H8:H1048576 L8:L1048576 P8:P1048576 T8:T1048576 X8:X1048576 AB8:AB1048576 AF8:AF1048576 AN8:AN1048576 AJ8:AJ1048576">
       <formula1>aspectk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 I1:I1048576 M1:M1048576 Q1:Q1048576 U1:U1048576 Y1:Y1048576 AC1:AC1048576 AG1:AG1048576 AK1:AK1048576 AO1:AO1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I6 M1:M6 Q1:Q6 U1:U6 Y1:Y6 AC1:AC6 AG1:AG6 AK1:AK6 AO1:AO6 E1:E6 AO8:AO1048576 AK8:AK1048576 AG8:AG1048576 AC8:AC1048576 Y8:Y1048576 U8:U1048576 Q8:Q1048576 M8:M1048576 I8:I1048576 E8:E1048576">
       <formula1>doingTypek</formula1>
     </dataValidation>
   </dataValidations>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="270">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -1013,6 +1013,33 @@
   </si>
   <si>
     <t>帐号注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示服务器列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求角色列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色列表</t>
+  </si>
+  <si>
+    <t>获取角色列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置选择的服务器Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回进入游戏界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2595,11 +2622,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP21"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3588,6 +3615,222 @@
         <v>206</v>
       </c>
       <c r="R21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="3">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" s="3">
+        <v>25</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N22" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" s="3">
+        <v>26</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N26" s="3">
+        <v>23</v>
+      </c>
+      <c r="O26" s="3">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="3">
+        <v>26</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" s="3">
+        <v>23</v>
+      </c>
+      <c r="K27" s="3">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27" s="3">
         <v>4</v>
       </c>
     </row>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="271">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -985,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转到进入界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帐号执行登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,7 +1035,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回进入游戏界面</t>
+    <t>显示创建角色界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行创建角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示网络连接界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2622,11 +2626,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP27"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3081,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -3101,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -3252,7 +3256,7 @@
         <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" s="3">
         <v>14</v>
@@ -3287,7 +3291,7 @@
         <v>206</v>
       </c>
       <c r="F13" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -3343,7 +3347,7 @@
         <v>206</v>
       </c>
       <c r="F14" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -3477,37 +3481,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F18" s="3">
-        <v>22</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J18" s="3">
-        <v>23</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N18" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
@@ -3527,15 +3507,27 @@
         <v>206</v>
       </c>
       <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -3547,22 +3539,46 @@
         <v>206</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>206</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="3">
+        <v>21</v>
+      </c>
+      <c r="O20" s="3">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -3573,13 +3589,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
@@ -3591,7 +3607,7 @@
         <v>206</v>
       </c>
       <c r="J21" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="3">
         <v>3</v>
@@ -3603,18 +3619,6 @@
         <v>206</v>
       </c>
       <c r="N21" s="3">
-        <v>21</v>
-      </c>
-      <c r="O21" s="3">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="R21" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3629,37 +3633,25 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F22" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>206</v>
       </c>
       <c r="J22" s="3">
-        <v>25</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
@@ -3667,31 +3659,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
         <v>2</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
@@ -3699,13 +3679,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>206</v>
@@ -3719,19 +3699,55 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F25" s="3">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3">
         <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" s="3">
+        <v>26</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N25" s="3">
+        <v>23</v>
+      </c>
+      <c r="O25" s="3">
+        <v>4</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R25" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
@@ -3745,13 +3761,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
@@ -3763,7 +3779,7 @@
         <v>206</v>
       </c>
       <c r="J26" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" s="3">
         <v>3</v>
@@ -3775,18 +3791,6 @@
         <v>206</v>
       </c>
       <c r="N26" s="3">
-        <v>23</v>
-      </c>
-      <c r="O26" s="3">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="R26" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3801,39 +3805,72 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" s="3">
-        <v>26</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="E28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J27" s="3">
-        <v>23</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="I28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" s="3">
+        <v>18</v>
+      </c>
+      <c r="K28" s="3">
         <v>3</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="M28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N28" s="3">
+        <v>29</v>
+      </c>
+      <c r="O28" s="3">
         <v>4</v>
       </c>
-    </row>
+      <c r="P28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="274">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -1044,6 +1044,17 @@
   </si>
   <si>
     <t>显示网络连接界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求代理服务器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络系统</t>
+  </si>
+  <si>
+    <t>连接代理服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,6 +1174,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2626,11 +2640,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP29"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3870,7 +3884,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13">
+        <v>24</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="13">
+        <v>8</v>
+      </c>
+      <c r="G29" s="13">
+        <v>2</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="278">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -1055,6 +1055,22 @@
   </si>
   <si>
     <t>连接代理服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开连接代理服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2640,11 +2656,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP30"/>
+  <dimension ref="A1:AP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3936,6 +3952,43 @@
         <v>2</v>
       </c>
     </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
@@ -3969,10 +4022,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C8:C1048576">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN6 AF1:AF6 AB1:AB6 X1:X6 T1:T6 P1:P6 L1:L6 H1:H6 D1:D6 AJ1:AJ6 D8:D1048576 H8:H1048576 L8:L1048576 P8:P1048576 T8:T1048576 X8:X1048576 AB8:AB1048576 AF8:AF1048576 AN8:AN1048576 AJ8:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN6 AF1:AF6 AB1:AB6 X1:X6 T1:T6 P1:P6 L1:L6 H1:H6 D1:D6 AJ1:AJ6 AJ8:AJ1048576 AN8:AN1048576 AF8:AF1048576 AB8:AB1048576 X8:X1048576 T8:T1048576 P8:P1048576 L8:L1048576 H8:H1048576 D8:D1048576">
       <formula1>aspectk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I6 M1:M6 Q1:Q6 U1:U6 Y1:Y6 AC1:AC6 AG1:AG6 AK1:AK6 AO1:AO6 E1:E6 AO8:AO1048576 AK8:AK1048576 AG8:AG1048576 AC8:AC1048576 Y8:Y1048576 U8:U1048576 Q8:Q1048576 M8:M1048576 I8:I1048576 E8:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I6 M1:M6 Q1:Q6 U1:U6 Y1:Y6 AC1:AC6 AG1:AG6 AK1:AK6 AO1:AO6 E1:E6 E8:E1048576 I8:I1048576 M8:M1048576 Q8:Q1048576 U8:U1048576 Y8:Y1048576 AC8:AC1048576 AG8:AG1048576 AK8:AK1048576 AO8:AO1048576">
       <formula1>doingTypek</formula1>
     </dataValidation>
   </dataValidations>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="279">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -1058,10 +1058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连接代理服务器出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连接代理服务器成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1070,7 +1066,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>断开连接代理服务器</t>
+    <t>连接代理服务器中异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器中断开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器时出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2660,7 +2664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3957,7 +3961,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
@@ -3965,28 +3978,67 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="279">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -1043,10 +1043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示网络连接界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求代理服务器地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1075,6 +1071,10 @@
   </si>
   <si>
     <t>连接代理服务器时出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示连接代理服务器界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2660,17 +2660,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
@@ -3848,185 +3848,178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" s="3">
+        <v>18</v>
+      </c>
+      <c r="K29" s="3">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" s="3">
+        <v>29</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
+        <v>24</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="13">
+        <v>8</v>
+      </c>
+      <c r="G30" s="13">
         <v>2</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J28" s="3">
-        <v>18</v>
-      </c>
-      <c r="K28" s="3">
-        <v>3</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N28" s="3">
-        <v>29</v>
-      </c>
-      <c r="O28" s="3">
-        <v>4</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="R28" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
-        <v>24</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="13">
-        <v>8</v>
-      </c>
-      <c r="G29" s="13">
-        <v>2</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
+      <c r="I30" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>206</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
         <v>29</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>276</v>
@@ -4039,6 +4032,77 @@
       </c>
       <c r="E35" s="3" t="s">
         <v>206</v>
+      </c>
+      <c r="F35" s="3">
+        <v>31</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" s="3">
+        <v>36</v>
+      </c>
+      <c r="K35" s="3">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="3">
+        <v>31</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" s="3">
+        <v>37</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N36" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="279">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -1691,7 +1691,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2111,6 +2111,92 @@
       </c>
       <c r="K7" s="7">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.15">
@@ -2662,9 +2748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3974,6 +4060,18 @@
         <v>206</v>
       </c>
       <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J32" s="3">
         <v>33</v>
       </c>
     </row>
@@ -3994,6 +4092,18 @@
         <v>206</v>
       </c>
       <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="3">
         <v>34</v>
       </c>
     </row>
@@ -4014,6 +4124,18 @@
         <v>206</v>
       </c>
       <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" s="3">
         <v>35</v>
       </c>
     </row>

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -2746,11 +2746,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP36"/>
+  <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4227,6 +4227,7 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">

--- a/gameTb/client/table/基础业务.xlsx
+++ b/gameTb/client/table/基础业务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="applicationEngine" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="281">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -1075,6 +1075,14 @@
   </si>
   <si>
     <t>显示连接代理服务器界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,14 +1491,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="34" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
@@ -1529,6 +1537,9 @@
       </c>
       <c r="B3" s="8" t="s">
         <v>176</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>156</v>
@@ -1689,9 +1700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2251,7 +2262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2748,9 +2759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3211,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>206</v>
@@ -4279,15 +4290,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
@@ -4361,16 +4372,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -4675,12 +4685,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
@@ -4730,7 +4740,7 @@
         <v>184</v>
       </c>
       <c r="B6" s="3">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -4738,7 +4748,7 @@
         <v>185</v>
       </c>
       <c r="B7" s="3">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
